--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N2">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q2">
-        <v>0.1638539385637778</v>
+        <v>0.120150046192</v>
       </c>
       <c r="R2">
-        <v>1.474685447074</v>
+        <v>1.081350415728</v>
       </c>
       <c r="S2">
-        <v>0.0527577682205043</v>
+        <v>0.06835410041845352</v>
       </c>
       <c r="T2">
-        <v>0.06962791497945957</v>
+        <v>0.0883978601612639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N3">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q3">
-        <v>0.014315716114</v>
+        <v>0.0661770836095</v>
       </c>
       <c r="R3">
-        <v>0.08589429668399999</v>
+        <v>0.397062501657</v>
       </c>
       <c r="S3">
-        <v>0.004609381008922007</v>
+        <v>0.03764854997405191</v>
       </c>
       <c r="T3">
-        <v>0.004055536588226681</v>
+        <v>0.03245892819408314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J4">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N4">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q4">
-        <v>0.0009608109419999999</v>
+        <v>0.0007173831903333333</v>
       </c>
       <c r="R4">
-        <v>0.008647298478</v>
+        <v>0.006456448713</v>
       </c>
       <c r="S4">
-        <v>0.0003093623590990457</v>
+        <v>0.0004081237101831444</v>
       </c>
       <c r="T4">
-        <v>0.0004082859598450903</v>
+        <v>0.0005277995385851941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,10 +729,10 @@
         <v>1.052732</v>
       </c>
       <c r="I5">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J5">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N5">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O5">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P5">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q5">
-        <v>0.6581565833182222</v>
+        <v>0.5911076143573333</v>
       </c>
       <c r="R5">
-        <v>5.923409249864</v>
+        <v>5.319968529216</v>
       </c>
       <c r="S5">
-        <v>0.2119135663131248</v>
+        <v>0.3362847581874999</v>
       </c>
       <c r="T5">
-        <v>0.2796763448479186</v>
+        <v>0.4348949491930951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -791,10 +791,10 @@
         <v>1.052732</v>
       </c>
       <c r="I6">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J6">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N6">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O6">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P6">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q6">
-        <v>0.057502327304</v>
+        <v>0.3255743901673333</v>
       </c>
       <c r="R6">
-        <v>0.345013963824</v>
+        <v>1.953446341004</v>
       </c>
       <c r="S6">
-        <v>0.01851462639613748</v>
+        <v>0.1852212734368174</v>
       </c>
       <c r="T6">
-        <v>0.0162899844082196</v>
+        <v>0.1596896565377932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +853,10 @@
         <v>1.052732</v>
       </c>
       <c r="I7">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J7">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N7">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O7">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P7">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q7">
-        <v>0.003859315512</v>
+        <v>0.003529342515111111</v>
       </c>
       <c r="R7">
-        <v>0.034733839608</v>
+        <v>0.031764082636</v>
       </c>
       <c r="S7">
-        <v>0.001242624224089927</v>
+        <v>0.00200786466867863</v>
       </c>
       <c r="T7">
-        <v>0.001639973348848442</v>
+        <v>0.002596639252334874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H8">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I8">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J8">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N8">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O8">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P8">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q8">
-        <v>1.888235852886333</v>
+        <v>0.417857762256</v>
       </c>
       <c r="R8">
-        <v>11.329415117318</v>
+        <v>2.507146573536</v>
       </c>
       <c r="S8">
-        <v>0.6079750681943367</v>
+        <v>0.2377218515275001</v>
       </c>
       <c r="T8">
-        <v>0.5349232638870934</v>
+        <v>0.2049533518346328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H9">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I9">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J9">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N9">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O9">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P9">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q9">
-        <v>0.164972832897</v>
+        <v>0.2301506237085</v>
       </c>
       <c r="R9">
-        <v>0.6598913315880001</v>
+        <v>0.920602494834</v>
       </c>
       <c r="S9">
-        <v>0.05311803034427619</v>
+        <v>0.1309341056698486</v>
       </c>
       <c r="T9">
-        <v>0.03115705632184625</v>
+        <v>0.07525709466496987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H10">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I10">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J10">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,214 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N10">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O10">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P10">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q10">
-        <v>0.011072285991</v>
+        <v>0.002494914851</v>
       </c>
       <c r="R10">
-        <v>0.066433715946</v>
+        <v>0.014969489106</v>
       </c>
       <c r="S10">
-        <v>0.003565059852113004</v>
+        <v>0.001419372406967081</v>
       </c>
       <c r="T10">
-        <v>0.003136696801908252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.209003</v>
-      </c>
-      <c r="I11">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J11">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.875567333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.626702</v>
-      </c>
-      <c r="O11">
-        <v>0.9147184316015461</v>
-      </c>
-      <c r="P11">
-        <v>0.9397527619538806</v>
-      </c>
-      <c r="Q11">
-        <v>0.1306663997895556</v>
-      </c>
-      <c r="R11">
-        <v>1.175997598106</v>
-      </c>
-      <c r="S11">
-        <v>0.04207202887358039</v>
-      </c>
-      <c r="T11">
-        <v>0.05552523823940902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.209003</v>
-      </c>
-      <c r="I12">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J12">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.163866</v>
-      </c>
-      <c r="N12">
-        <v>0.327732</v>
-      </c>
-      <c r="O12">
-        <v>0.07991781891745056</v>
-      </c>
-      <c r="P12">
-        <v>0.05473669161449624</v>
-      </c>
-      <c r="Q12">
-        <v>0.011416161866</v>
-      </c>
-      <c r="R12">
-        <v>0.06849697119600001</v>
-      </c>
-      <c r="S12">
-        <v>0.003675781168114887</v>
-      </c>
-      <c r="T12">
-        <v>0.003234114296203708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.209003</v>
-      </c>
-      <c r="I13">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J13">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.010998</v>
-      </c>
-      <c r="N13">
-        <v>0.032994</v>
-      </c>
-      <c r="O13">
-        <v>0.005363749481003511</v>
-      </c>
-      <c r="P13">
-        <v>0.005510546431623061</v>
-      </c>
-      <c r="Q13">
-        <v>0.0007662049980000001</v>
-      </c>
-      <c r="R13">
-        <v>0.006895844982000001</v>
-      </c>
-      <c r="S13">
-        <v>0.0002467030457015337</v>
-      </c>
-      <c r="T13">
-        <v>0.000325590321021277</v>
+        <v>0.001223720623242081</v>
       </c>
     </row>
   </sheetData>
